--- a/CPBL Analysis/新各球場對應觀測站.xlsx
+++ b/CPBL Analysis/新各球場對應觀測站.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\莊明儒\Desktop\中職票房研究\DataProcess\CPBL Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A171814-E7F2-4FA8-A65B-7C21B686D107}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F8F139-07E3-426A-BF71-694DD1F4C554}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6456" yWindow="1092" windowWidth="11460" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>stadium</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>花蓮</t>
-  </si>
-  <si>
-    <t>中壢</t>
   </si>
   <si>
     <t>觀音</t>
@@ -537,9 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -580,7 +579,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -597,7 +596,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -609,21 +608,21 @@
         <v>41356</v>
       </c>
       <c r="E4" s="2">
-        <v>43089</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>43089</v>
+        <v>41944</v>
       </c>
       <c r="E5" s="2">
         <v>43755</v>
@@ -631,44 +630,44 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
+        <v>41356</v>
+      </c>
+      <c r="E6" s="2">
         <v>41944</v>
-      </c>
-      <c r="E6" s="2">
-        <v>43755</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>41356</v>
       </c>
       <c r="E7" s="2">
-        <v>41944</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -682,16 +681,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>41356</v>
+        <v>42188</v>
       </c>
       <c r="E9" s="2">
         <v>43755</v>
@@ -699,7 +698,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -708,15 +707,15 @@
         <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>42188</v>
+        <v>41356</v>
       </c>
       <c r="E10" s="2">
-        <v>43755</v>
+        <v>42152</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -725,32 +724,32 @@
         <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>41356</v>
+        <v>42152</v>
       </c>
       <c r="E11" s="2">
-        <v>42152</v>
+        <v>42188</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2">
-        <v>42152</v>
+        <v>42188</v>
       </c>
       <c r="E12" s="2">
-        <v>42188</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -759,18 +758,18 @@
         <v>25</v>
       </c>
       <c r="D13" s="2">
+        <v>41356</v>
+      </c>
+      <c r="E13" s="2">
         <v>42188</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43755</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -779,21 +778,21 @@
         <v>41356</v>
       </c>
       <c r="E14" s="2">
-        <v>42188</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>41356</v>
+        <v>41609</v>
       </c>
       <c r="E15" s="2">
         <v>43755</v>
@@ -801,7 +800,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -810,15 +809,15 @@
         <v>28</v>
       </c>
       <c r="D16" s="2">
-        <v>41609</v>
+        <v>41356</v>
       </c>
       <c r="E16" s="2">
-        <v>43755</v>
+        <v>41520</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -827,49 +826,49 @@
         <v>29</v>
       </c>
       <c r="D17" s="2">
-        <v>41356</v>
+        <v>41520</v>
       </c>
       <c r="E17" s="2">
-        <v>41520</v>
+        <v>41609</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>41520</v>
+        <v>41609</v>
       </c>
       <c r="E18" s="2">
-        <v>41609</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
-        <v>41609</v>
+        <v>41356</v>
       </c>
       <c r="E19" s="2">
-        <v>43755</v>
+        <v>41494</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -878,49 +877,49 @@
         <v>31</v>
       </c>
       <c r="D20" s="2">
-        <v>41356</v>
+        <v>41494</v>
       </c>
       <c r="E20" s="2">
-        <v>41494</v>
+        <v>41609</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2">
-        <v>41494</v>
+        <v>43070</v>
       </c>
       <c r="E21" s="2">
-        <v>41609</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
-        <v>43070</v>
+        <v>41356</v>
       </c>
       <c r="E22" s="2">
-        <v>43755</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -929,43 +928,26 @@
         <v>33</v>
       </c>
       <c r="D23" s="2">
-        <v>41356</v>
+        <v>42341</v>
       </c>
       <c r="E23" s="2">
-        <v>42341</v>
+        <v>43070</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2">
-        <v>42341</v>
+        <v>41356</v>
       </c>
       <c r="E24" s="2">
-        <v>43070</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2">
-        <v>41356</v>
-      </c>
-      <c r="E25" s="2">
         <v>43755</v>
       </c>
     </row>
